--- a/INPUT/test/example5.xlsx
+++ b/INPUT/test/example5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50718352-BB01-EC40-9E39-375766B462BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4C7E0A-101E-7B42-A2FF-0A3A83198A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="700" windowWidth="37900" windowHeight="27000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="178">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -887,6 +887,10 @@
   </si>
   <si>
     <t>BBBBHPLC:comment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6759,19 +6763,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6779,71 +6783,77 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6856,19 +6866,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6876,71 +6886,77 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6955,10 +6971,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A15" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -6972,12 +6988,12 @@
     <col min="8" max="9" width="20.1640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="45" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="46" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="45"/>
-    <col min="14" max="14" width="5.83203125" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="44"/>
+    <col min="12" max="12" width="25.1640625" style="45"/>
+    <col min="13" max="13" width="5.83203125" style="44" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -7012,13 +7028,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="50" t="s">
         <v>67</v>
       </c>
@@ -7039,9 +7052,8 @@
       <c r="J2" s="51"/>
       <c r="K2" s="53"/>
       <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>67</v>
       </c>
@@ -7066,9 +7078,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="50" t="s">
         <v>67</v>
       </c>
@@ -7093,9 +7104,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -7108,9 +7118,8 @@
       <c r="J5" s="51"/>
       <c r="K5" s="68"/>
       <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>68</v>
       </c>
@@ -7130,12 +7139,11 @@
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>68</v>
       </c>
@@ -7159,12 +7167,11 @@
       <c r="K7" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
+      <c r="L7" s="51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>68</v>
       </c>
@@ -7186,12 +7193,11 @@
         <v>139</v>
       </c>
       <c r="K8" s="68"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51" t="s">
+      <c r="L8" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="50" t="s">
         <v>68</v>
       </c>
@@ -7215,12 +7221,11 @@
       <c r="K9" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="50" t="s">
         <v>68</v>
       </c>
@@ -7242,12 +7247,11 @@
         <v>145</v>
       </c>
       <c r="K10" s="68"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51" t="s">
+      <c r="L10" s="51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="50" t="s">
         <v>68</v>
       </c>
@@ -7269,12 +7273,11 @@
         <v>116</v>
       </c>
       <c r="K11" s="68"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51" t="s">
+      <c r="L11" s="51" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>68</v>
       </c>
@@ -7298,12 +7301,11 @@
       <c r="K12" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51" t="s">
+      <c r="L12" s="51" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>68</v>
       </c>
@@ -7327,12 +7329,11 @@
       <c r="K13" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51" t="s">
+      <c r="L13" s="51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="50" t="s">
         <v>68</v>
       </c>
@@ -7356,12 +7357,11 @@
       <c r="K14" t="s">
         <v>172</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="L14" s="51" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7374,9 +7374,8 @@
       <c r="J15" s="51"/>
       <c r="K15" s="68"/>
       <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>133</v>
       </c>
@@ -7397,9 +7396,8 @@
       <c r="J16" s="51"/>
       <c r="K16" s="53"/>
       <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="50" t="s">
         <v>133</v>
       </c>
@@ -7424,9 +7422,8 @@
         <v>81</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="50" t="s">
         <v>133</v>
       </c>
@@ -7451,9 +7448,8 @@
         <v>80</v>
       </c>
       <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -7466,9 +7462,8 @@
       <c r="J19" s="51"/>
       <c r="K19" s="68"/>
       <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="50" t="s">
         <v>175</v>
       </c>
@@ -7489,9 +7484,8 @@
       <c r="J20" s="51"/>
       <c r="K20" s="53"/>
       <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>175</v>
       </c>
@@ -7514,9 +7508,8 @@
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -7529,9 +7522,8 @@
       <c r="J22" s="51"/>
       <c r="K22" s="68"/>
       <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-    </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="50" t="s">
         <v>134</v>
       </c>
@@ -7551,12 +7543,11 @@
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51" t="s">
+      <c r="L23" s="51" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="50" t="s">
         <v>134</v>
       </c>
@@ -7579,9 +7570,8 @@
       </c>
       <c r="K24" s="53"/>
       <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-    </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="50" t="s">
         <v>134</v>
       </c>
@@ -7601,12 +7591,11 @@
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="50" t="s">
         <v>134</v>
       </c>
@@ -7628,12 +7617,11 @@
         <v>146</v>
       </c>
       <c r="K26" s="53"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51" t="s">
+      <c r="L26" s="51" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="50" t="s">
         <v>134</v>
       </c>
@@ -7653,12 +7641,11 @@
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
       <c r="K27" s="53"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51" t="s">
+      <c r="L27" s="51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="50" t="s">
         <v>134</v>
       </c>
@@ -7683,9 +7670,8 @@
         <v>154</v>
       </c>
       <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-    </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="50" t="s">
         <v>134</v>
       </c>
@@ -7706,9 +7692,8 @@
       <c r="J29" s="51"/>
       <c r="K29" s="53"/>
       <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="50" t="s">
         <v>134</v>
       </c>
@@ -7733,9 +7718,8 @@
       </c>
       <c r="K30" s="53"/>
       <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="50" t="s">
         <v>134</v>
       </c>
@@ -7760,9 +7744,8 @@
       </c>
       <c r="K31" s="53"/>
       <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="50" t="s">
         <v>134</v>
       </c>
@@ -7787,9 +7770,8 @@
       </c>
       <c r="K32" s="53"/>
       <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="50" t="s">
         <v>134</v>
       </c>
@@ -7816,9 +7798,8 @@
         <v>272</v>
       </c>
       <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="50" t="s">
         <v>134</v>
       </c>
@@ -7845,9 +7826,8 @@
         <v>600</v>
       </c>
       <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-    </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -7860,9 +7840,8 @@
       <c r="J35" s="51"/>
       <c r="K35" s="68"/>
       <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-    </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="50" t="s">
         <v>69</v>
       </c>
@@ -7882,12 +7861,11 @@
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="24" customHeight="1">
+    <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>69</v>
       </c>
@@ -7907,12 +7885,11 @@
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51" t="s">
+      <c r="L37" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="24" customHeight="1">
+    <row r="38" spans="1:12" ht="24" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>69</v>
       </c>
@@ -7934,12 +7911,11 @@
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51" t="s">
+      <c r="L38" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="24" customHeight="1">
+    <row r="39" spans="1:12" ht="24" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>69</v>
       </c>
@@ -7961,12 +7937,11 @@
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51" t="s">
+      <c r="L39" s="51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="24" customHeight="1">
+    <row r="40" spans="1:12" ht="24" customHeight="1">
       <c r="A40" s="50" t="s">
         <v>69</v>
       </c>
@@ -7988,12 +7963,11 @@
       <c r="I40" s="51"/>
       <c r="J40" s="51"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51" t="s">
+      <c r="L40" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="24" customHeight="1">
+    <row r="41" spans="1:12" ht="24" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>69</v>
       </c>
@@ -8017,12 +7991,11 @@
       <c r="I41" s="51"/>
       <c r="J41" s="51"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51" t="s">
+      <c r="L41" s="51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="24" customHeight="1">
+    <row r="42" spans="1:12" ht="24" customHeight="1">
       <c r="A42" s="50" t="s">
         <v>69</v>
       </c>
@@ -8044,12 +8017,11 @@
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51" t="s">
+      <c r="L42" s="51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="24" customHeight="1">
+    <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>69</v>
       </c>
@@ -8070,9 +8042,8 @@
       <c r="J43" s="51"/>
       <c r="K43" s="53"/>
       <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-    </row>
-    <row r="44" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="44" spans="1:12" ht="24" customHeight="1">
       <c r="A44" s="50" t="s">
         <v>69</v>
       </c>
@@ -8097,9 +8068,8 @@
       </c>
       <c r="K44" s="53"/>
       <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" ht="24" customHeight="1">
       <c r="A45" s="50" t="s">
         <v>69</v>
       </c>
@@ -8119,14 +8089,13 @@
       <c r="G45" s="52"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="54" t="s">
-        <v>121</v>
+      <c r="J45" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="K45" s="53"/>
       <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="46" spans="1:12" ht="24" customHeight="1">
       <c r="A46" s="50" t="s">
         <v>69</v>
       </c>
@@ -8151,9 +8120,8 @@
       </c>
       <c r="K46" s="53"/>
       <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1">
       <c r="A47" s="50" t="s">
         <v>69</v>
       </c>
@@ -8171,14 +8139,13 @@
       <c r="G47" s="52"/>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
-      <c r="J47" s="51" t="s">
-        <v>100</v>
+      <c r="J47" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="K47" s="53"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-    </row>
-    <row r="48" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="48" spans="1:12" ht="24" customHeight="1">
       <c r="A48" s="50" t="s">
         <v>69</v>
       </c>
@@ -8201,9 +8168,8 @@
       </c>
       <c r="K48" s="53"/>
       <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-    </row>
-    <row r="49" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="49" spans="1:12" ht="24" customHeight="1">
       <c r="A49" s="50" t="s">
         <v>69</v>
       </c>
@@ -8226,9 +8192,8 @@
       </c>
       <c r="K49" s="53"/>
       <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-    </row>
-    <row r="50" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1">
       <c r="A50" s="50" t="s">
         <v>69</v>
       </c>
@@ -8251,7 +8216,6 @@
       </c>
       <c r="K50" s="53"/>
       <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
